--- a/planilha/responder.xlsx
+++ b/planilha/responder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Operadora</t>
   </si>
@@ -58,126 +58,87 @@
     <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
   </si>
   <si>
-    <t>8611994</t>
-  </si>
-  <si>
-    <t>8612020</t>
-  </si>
-  <si>
-    <t>8612275</t>
-  </si>
-  <si>
-    <t>8612772</t>
-  </si>
-  <si>
-    <t>8612993</t>
-  </si>
-  <si>
-    <t>8613126</t>
-  </si>
-  <si>
-    <t>8613168</t>
-  </si>
-  <si>
-    <t>8613869</t>
-  </si>
-  <si>
-    <t>8614152</t>
-  </si>
-  <si>
-    <t>8614707</t>
-  </si>
-  <si>
-    <t>CINTHIA KARLA OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>JOSINEIDE LUIZA DE OLIVEIRA VALENTIM</t>
-  </si>
-  <si>
-    <t>JOANNA MORAIS PEREIRA DO MONTE MENDES</t>
-  </si>
-  <si>
-    <t>DAIANA KELLY SOUZA DA SILVA</t>
-  </si>
-  <si>
-    <t>JULIANA TORREAO DE SA MARQUES</t>
-  </si>
-  <si>
-    <t>HEITOR GUILHERME ALVES COSTA</t>
-  </si>
-  <si>
-    <t>MARIA CLARA VASCONCELOS CARVALHO</t>
-  </si>
-  <si>
-    <t>JULIA ROCHA DE ALBUQUERQUE ERNANI SOUZA</t>
-  </si>
-  <si>
-    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>03905800403</t>
-  </si>
-  <si>
-    <t>41678206415</t>
-  </si>
-  <si>
-    <t>01401859410</t>
-  </si>
-  <si>
-    <t>06547794490</t>
-  </si>
-  <si>
-    <t>86404725487</t>
-  </si>
-  <si>
-    <t>15965704402</t>
-  </si>
-  <si>
-    <t>11898974586</t>
-  </si>
-  <si>
-    <t>17278581400</t>
-  </si>
-  <si>
-    <t>70282814426</t>
-  </si>
-  <si>
-    <t>SOLICITADO COM ANEXO DO PEDIDO MÉDICO A RESSONÂNCIA DOS JOELHOS ONDE DESDE 28/02 NÃO TIVE RESPOSTA. A SOLICITAÇÃO ABERTA ELES DEIXAM STATUS COMO CONCLUÍDO PORÉM NA RESPOSTA ELES COLOCAM QUE ESTÁ SENDO AVALIADO PELA EQUIPE DE AUDITORIA E QUE O PRAZO É DE 21 DIAS ÚTEIS E ATÉ O MOMENTO SEM RETORNO. ABRIR UM CHAMADO NA OUVIDORIA DO YOU TAMBÉM NÃO TIVE RESPOSTAS. ESTOU PRECISANDO DO EXAME E NEM UM RETORNO AO CLIENTE. ELES PRECISAM ATENTAR QUE 21 DIAS ÚTEIS É O PRAZO MÁXIMO. ABRIR OUTRO PROTOCOLO EM 13/04 QUESTIONANDO O RETORNO E ATÉ O MOMENTO TAMBÉM SEM RESPOSTAS, DESTA FORMA, PRECISEI APELAR VIA ANS.</t>
-  </si>
-  <si>
-    <t>SOLICITADO COM ANEXO DO PEDIDO MÉDICO A USG ABDOMEN TOTAL E ENDOVAGINAL ONDE DESDE 10/03 NÃO TIVE RESPOSTA. A SOLICITAÇÃO ABERTA ELES DEIXAM STATUS COMO CONCLUÍDO PORÉM NA RESPOSTA ELES COLOCAM QUE ESTÁ SENDO AVALIADO PELA EQUIPE DE AUDITORIA E QUE O PRAZO É DE 10 DIAS ÚTEIS E ATÉ O MOMENTO SEM RETORNO. ABRIR UM CHAMADO NA OUVIDORIA DO YOU TAMBÉM NÃO TIVE RESPOSTAS. ESTOU PRECISANDO DOS EXAMES E NEM UM RETORNO AO CLIENTE.  ABRIR OUTRO PROTOCOLO EM 13/04 QUESTIONANDO O RETORNO E ATÉ O MOMENTO TAMBÉM SEM RESPOSTAS, DESTA FORMA, PRECISEI APELAR VIA ANS.</t>
-  </si>
-  <si>
-    <t>Interlocutor que se identifica como filho da beneficiária questiona a não cobertura para ENDOCRINOLOGIA E METABOLOGIA, com Dra Gabriela Amanda da Silva Moreira. O atendimento foi solicitado à operadora no dia 04/03/2023 para realização no município Recife/PE.  A operadora descredenciou a profissional e outros serviços do Hospital Santa Joana e até o momento não apresentou outro prestador para realizar o atendimento. Protocolo: 42238020230417494595.</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de atendimento para 31005470 Colecistectomia com colangiografia por videolaparoscopia. A solicitação foi feita à Operadora no dia 13/03/2023, para realização no município Recife. A operadora alega que o pedido está em análise [. Protocolo 42538020234417495047 - data  07/04/2023</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como beneficiária, questiona a falta de atendimento para histerectomia. A solicitação foi feita à Operadora no dia 03/2023, para realização no município Recife/PE. A operadora alega que o pedido está em análise . Protocolo 42238020230417495000 data 17/04/2023</t>
-  </si>
-  <si>
-    <t>Foi solicitado a autorização dos exames mencionados acima porém, o qual o plano de saúde disse que o prazo seria 10 dias úteis para resposta, que depois de muitas ligações ele diz que não pode autorizar por falta de data na solicitação médica. _x000D_
-Desde quando isso detalhe é motivo de negativa de uma solicitação?</t>
-  </si>
-  <si>
-    <t>Interlocutor, que se identifica como  pai do beneficiário, questiona a não cobertura para psicóloga ,fonoaudiólogo, terapia ocupacional, psicomotricidade método aba , pneumologista  e alergologista . A operadora indicou os prestadores  e nenhum profissional tem agenda disponível para atendimento. O procedimento foi solicitado à operadora desde o mês 01/2023, para realização no município Abreu e Lima. Protocolo 42238020230417495261 – data : 17/04/2023.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para 40202038 ENDOSCOPIA DIGESTIVA ALTA COM BIÓPSIA E/OU CITOLOGIA, Solicitante DR FABIO MENEZES DE MELO. A solicitação foi feita à Operadora no dia 27/03/2023, para realização no município JABOATÃO DOS GARARAPES-PE. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. _x000D_
-Protocolo 42238020230327454875 data 27/03/2023 contato por telefone.</t>
-  </si>
-  <si>
-    <t>Interlocutor, que se identifica como pai da beneficiária questiona a falta de atendimento para Adenoidectomia por videoendoscopia, Amigdalectomia das palatinas, Timpanotomia para tubo de ventilação - unilateral e Turbinectomia ou turbinoplastia - unilateral. A solicitação foi feita à Operadora no dia 08/03/2023 para realização no município Recife. A operadora alega que o pedido está em cotação de materiais. Protocolo 42238020230417495889 Data 17/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A documentação da cirurgia foi entregue ao Hospital Santa Joana em 02/02/23. A operadora You Saúde, recebeu a solicitação de autorização do hospital em 02/03/23. Ao questionar ao hospital sobre a demora de 1 mês para o envio da autorização para o plano, fui informada que pelas regras da You Saúde, em casos de material solicitado pelo médico pede-se o mínimo de 3 cotações com empresas distintas antes de enviar a solicitação de autorização. A morosidade já começou daí. O hospital teve dificuldade em fazer as cotações e em achar fornecedor que aceite receber pela You Saúde. O prazo máximo de 21 dias para autorização do procedimento foi até 30/03/2023.Até a presente data o procedimento ainda não foi autorizado. Liguei em 15/04/2023 para a You Saúde que informou que o procedimento ainda não foi autorizado porquê o hospital não retornou o contato sobre um documento pendente. O hospital não atende no setor de cirurgias. E eu, que estou precisando realizar a cirurgia, fico neste impasse. </t>
+    <t>8623587</t>
+  </si>
+  <si>
+    <t>8623619</t>
+  </si>
+  <si>
+    <t>8623755</t>
+  </si>
+  <si>
+    <t>8625556</t>
+  </si>
+  <si>
+    <t>8625713</t>
+  </si>
+  <si>
+    <t>8625882</t>
+  </si>
+  <si>
+    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
+  </si>
+  <si>
+    <t>RILDEMBERG LIMA DA COSTA</t>
+  </si>
+  <si>
+    <t>SARAH LUIZ SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>SARAH DE OLIVEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>KATIA CRISTINA DA SILVA</t>
+  </si>
+  <si>
+    <t>EMANUELA VIEIRA ESTEVES</t>
+  </si>
+  <si>
+    <t>03752083484</t>
+  </si>
+  <si>
+    <t>03549946465</t>
+  </si>
+  <si>
+    <t>14013372444</t>
+  </si>
+  <si>
+    <t>05075054684</t>
+  </si>
+  <si>
+    <t>02996816617</t>
+  </si>
+  <si>
+    <t>22707798789</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para Microneurólise múltiplas.  A solicitação foi feita à operadora no dia 21/01/2023, mas a mesma negou alegando que tal serviço não consta no Rol de Procedimentos e Eventos em Saúde vigente, embora tal procedimento tenha sido identificado no Rol. Protocolo: 42238020230421505151  data: 21/04/2023</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a falta de atendimento para cirurgia de reconstrução do ligamento cruzado anterior (lca). A solicitação foi feita à Operadora no dia 16/03/2023, para realização no município Recife-PF. A operadora alega que o pedido está em análise. Protocolo: 42238020230424507457 Data: 24/04/2023.</t>
+  </si>
+  <si>
+    <t>_x000D_
+Interlocutor(a), que se identifica como mãe da Beneficiária, questiona a falta de atendimento para 30205034-ADENO-AMIGDALECTOMIA. A solicitação foi feita à Operadora no dia 01/2023, para realização no município RECIFE/PE. A operadora alega que o pedido está em análise. Protocolo:42238020230424507514 - 24/04/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo entendimento dominante da jurisprudência pátria acerca desse assunto em relação ao período em que o plano está suspenso, mesmo que por inadimplência do consumidor, não pode ser cobrado valor de mensalidade referente ao período de suspensão. Ocorre que a You saúde suspendeu o atendimento ao meu plano em 20/03 em razão de atraso no pagamento da mensalidade vencida em 15/03/2023, e cobra todo o mês de março, em 14/04/2023 foi solicitado o cancelamento do plano por insatisfação na prestação do serviço, e agora querem cobrar também a mensalidade de abril 2023, mesmo sem prestarem qualquer tipo de serviço desde o dia 21/03/23. Ou seja, a partir da suspensão 21/03/23 até 14/04/23 a cobrança de mensalidade é indevida em razão da suspensão na prestação de serviços atestada via atendimento WhatsApp pela própria operadora e em relação à mensalidade com vencimento no curso da suspensão de 15/04/2023 é indevida em razão do cancelamento do plano de saúde. </t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para CIRURGIA BARIÁTRICA (GASTROPLASTIA), Solicitante DR RODRIGO SALES CRM 28574/MG . A solicitação foi feita à Operadora no dia 22/03/2023, para realização no município BELO HORIZONTE, no prestador HOSPITAL BELO HORIZONTE. A operadora alega que o pedido está em análise. _x000D_
+Protocolo 42238020230424508268 data 24/04/2023 contato por telefone.</t>
+  </si>
+  <si>
+    <t>Estou desde sábado tentando contato com convênio e tendo a consulta da minha filha negada por atraso de 10 dias no boleto, porém fiz o envio do comprovante por vários canais, hoje entrei em contato por várias vezes, minha filha consumidora do convênio a mais de 1 ano está com quadro de pneumonia e saturação baixa, precisando de oxigênio e internada em um pronto socorro do sus aguardando vaga pois o convênio se nega a atender o quadro dela que é de URGÊNCIA, JA TENTEI DE TODOS OS MODOS RELATAR A SITUACAO PARA O CONVÊNIO E SOU TRATADA COM TOTAL DESACASO!</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
     <t>Assistencial</t>
+  </si>
+  <si>
+    <t>No Assistencial</t>
   </si>
   <si>
     <t>XXXXXXX</t>
@@ -548,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,40 +561,40 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>45033.41063657407</v>
+        <v>45040.40141203703</v>
       </c>
       <c r="C2">
-        <v>12172837</v>
+        <v>12182380</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -641,40 +602,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>45033.41476851852</v>
+        <v>45040.40820601852</v>
       </c>
       <c r="C3">
-        <v>12172860</v>
+        <v>12182409</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
         <v>43</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -682,40 +643,40 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>45033.46383101852</v>
+        <v>45040.43019675926</v>
       </c>
       <c r="C4">
-        <v>12173082</v>
+        <v>12182516</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -723,40 +684,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>45033.53398148148</v>
+        <v>45040.65773148148</v>
       </c>
       <c r="C5">
-        <v>12173476</v>
+        <v>12183870</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
       <c r="H5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -764,40 +725,40 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>45033.55947916667</v>
+        <v>45040.68935185186</v>
       </c>
       <c r="C6">
-        <v>12173633</v>
+        <v>12184044</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
       <c r="H6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -805,204 +766,40 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>45033.57063657408</v>
+        <v>45040.71090277778</v>
       </c>
       <c r="C7">
-        <v>12173717</v>
+        <v>12184147</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45033.58219907407</v>
-      </c>
-      <c r="C8">
-        <v>12173788</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45033.66788194444</v>
-      </c>
-      <c r="C9">
-        <v>12174377</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45033.70738425926</v>
-      </c>
-      <c r="C10">
-        <v>12174582</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45033.89607638889</v>
-      </c>
-      <c r="C11">
-        <v>12175019</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/responder.xlsx
+++ b/planilha/responder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Operadora</t>
   </si>
@@ -58,78 +58,56 @@
     <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
   </si>
   <si>
-    <t>8623587</t>
-  </si>
-  <si>
-    <t>8623619</t>
-  </si>
-  <si>
-    <t>8623755</t>
-  </si>
-  <si>
-    <t>8625556</t>
-  </si>
-  <si>
-    <t>8625713</t>
-  </si>
-  <si>
-    <t>8625882</t>
-  </si>
-  <si>
-    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
-  </si>
-  <si>
-    <t>RILDEMBERG LIMA DA COSTA</t>
-  </si>
-  <si>
-    <t>SARAH LUIZ SOUZA DA SILVA</t>
-  </si>
-  <si>
-    <t>SARAH DE OLIVEIRA PEREZ</t>
-  </si>
-  <si>
-    <t>KATIA CRISTINA DA SILVA</t>
-  </si>
-  <si>
-    <t>EMANUELA VIEIRA ESTEVES</t>
-  </si>
-  <si>
-    <t>03752083484</t>
-  </si>
-  <si>
-    <t>03549946465</t>
-  </si>
-  <si>
-    <t>14013372444</t>
-  </si>
-  <si>
-    <t>05075054684</t>
-  </si>
-  <si>
-    <t>02996816617</t>
-  </si>
-  <si>
-    <t>22707798789</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a não cobertura para Microneurólise múltiplas.  A solicitação foi feita à operadora no dia 21/01/2023, mas a mesma negou alegando que tal serviço não consta no Rol de Procedimentos e Eventos em Saúde vigente, embora tal procedimento tenha sido identificado no Rol. Protocolo: 42238020230421505151  data: 21/04/2023</t>
-  </si>
-  <si>
-    <t>Beneficiário, questiona a falta de atendimento para cirurgia de reconstrução do ligamento cruzado anterior (lca). A solicitação foi feita à Operadora no dia 16/03/2023, para realização no município Recife-PF. A operadora alega que o pedido está em análise. Protocolo: 42238020230424507457 Data: 24/04/2023.</t>
-  </si>
-  <si>
-    <t>_x000D_
-Interlocutor(a), que se identifica como mãe da Beneficiária, questiona a falta de atendimento para 30205034-ADENO-AMIGDALECTOMIA. A solicitação foi feita à Operadora no dia 01/2023, para realização no município RECIFE/PE. A operadora alega que o pedido está em análise. Protocolo:42238020230424507514 - 24/04/2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segundo entendimento dominante da jurisprudência pátria acerca desse assunto em relação ao período em que o plano está suspenso, mesmo que por inadimplência do consumidor, não pode ser cobrado valor de mensalidade referente ao período de suspensão. Ocorre que a You saúde suspendeu o atendimento ao meu plano em 20/03 em razão de atraso no pagamento da mensalidade vencida em 15/03/2023, e cobra todo o mês de março, em 14/04/2023 foi solicitado o cancelamento do plano por insatisfação na prestação do serviço, e agora querem cobrar também a mensalidade de abril 2023, mesmo sem prestarem qualquer tipo de serviço desde o dia 21/03/23. Ou seja, a partir da suspensão 21/03/23 até 14/04/23 a cobrança de mensalidade é indevida em razão da suspensão na prestação de serviços atestada via atendimento WhatsApp pela própria operadora e em relação à mensalidade com vencimento no curso da suspensão de 15/04/2023 é indevida em razão do cancelamento do plano de saúde. </t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de atendimento para CIRURGIA BARIÁTRICA (GASTROPLASTIA), Solicitante DR RODRIGO SALES CRM 28574/MG . A solicitação foi feita à Operadora no dia 22/03/2023, para realização no município BELO HORIZONTE, no prestador HOSPITAL BELO HORIZONTE. A operadora alega que o pedido está em análise. _x000D_
-Protocolo 42238020230424508268 data 24/04/2023 contato por telefone.</t>
-  </si>
-  <si>
-    <t>Estou desde sábado tentando contato com convênio e tendo a consulta da minha filha negada por atraso de 10 dias no boleto, porém fiz o envio do comprovante por vários canais, hoje entrei em contato por várias vezes, minha filha consumidora do convênio a mais de 1 ano está com quadro de pneumonia e saturação baixa, precisando de oxigênio e internada em um pronto socorro do sus aguardando vaga pois o convênio se nega a atender o quadro dela que é de URGÊNCIA, JA TENTEI DE TODOS OS MODOS RELATAR A SITUACAO PARA O CONVÊNIO E SOU TRATADA COM TOTAL DESACASO!</t>
+    <t>8627150</t>
+  </si>
+  <si>
+    <t>8627273</t>
+  </si>
+  <si>
+    <t>8627323</t>
+  </si>
+  <si>
+    <t>8627708</t>
+  </si>
+  <si>
+    <t>GEOVANE PASSOS RIBEIRO</t>
+  </si>
+  <si>
+    <t>MARLY PAULA ARAUJO DA SILVA</t>
+  </si>
+  <si>
+    <t>CAMILA BARBOSA DE ARRUDA</t>
+  </si>
+  <si>
+    <t>CLAUDINEI DA SILVA</t>
+  </si>
+  <si>
+    <t>08938439704</t>
+  </si>
+  <si>
+    <t>24609196468</t>
+  </si>
+  <si>
+    <t>02145282351</t>
+  </si>
+  <si>
+    <t>03984642601</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a não cobertura para realização do procedimento ressonância magnética de coluna cervical e crânio, solicitado em 19/04/2023. Operadora alega que solicitação está ilegível e não dispõe de outro meios do beneficiário envia cópia do pedido. Ressalva que pedido é do SUS e está perfeitamente legível. Protocolo 422380202304195022219 data 19/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom dia!_x000D_
+Dia 26/03/2023 abri um chamado ao plano solicitando a autorização do exame de angiotomografia de artérias, e sempre entrava no aplicativo para vê a situação do pedido que estava em análise, como eles dão 10 dias úteis para autorização resolvi ligar hoje pela manhã solicitando o número de autorização do exame, onde fui informada que o exame não é coberto e está no rol da ans, pedi mais informações a respeito mas o atendente n passou. Sou idosa meu médico passou o exame com uma certa urgência e minhas carências já foram todas cumpridas. Gostaria de saber se isso realmente procede </t>
+  </si>
+  <si>
+    <t>No dia 6 no dia 11 e no dia 22 do 4 foi feito pedido de ultra-som abdominal para minha filha de um ano todos foram negadas e a últimas ligações que eu fiz no dia 25/04 10:20 elas foram derrubadas tanto pela ura como pelo atendente e ninguém  resolver meu problema estou indignada._x000D_
+_x000D_
+_x000D_
+Falta de respeito  com cliente:pu 42238020230425510638</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como esposa do beneficiário, questiona a não cobertura para internação em caráter de urgência e emergência. O procedimento foi solicitado no dia 25/04/2023, para realização no município de Uberlândia, entretanto, a operadora negou com a justificativa de que o beneficiário está em carência para o procedimento. Protocolo 423802023042551149  – data 25/04/2023.</t>
   </si>
   <si>
     <t>NO</t>
@@ -509,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,40 +539,40 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>45040.40141203703</v>
+        <v>45041.47012731482</v>
       </c>
       <c r="C2">
-        <v>12182380</v>
+        <v>12185222</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -602,40 +580,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>45040.40820601852</v>
+        <v>45041.48047453703</v>
       </c>
       <c r="C3">
-        <v>12182409</v>
+        <v>12185294</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -643,40 +621,40 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>45040.43019675926</v>
+        <v>45041.48710648148</v>
       </c>
       <c r="C4">
-        <v>12182516</v>
+        <v>12185344</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -684,122 +662,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>45040.65773148148</v>
+        <v>45041.54740740741</v>
       </c>
       <c r="C5">
-        <v>12183870</v>
+        <v>12185693</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45040.68935185186</v>
-      </c>
-      <c r="C6">
-        <v>12184044</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45040.71090277778</v>
-      </c>
-      <c r="C7">
-        <v>12184147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
